--- a/TemplateFiles/UploadStudentTemplates.xlsx
+++ b/TemplateFiles/UploadStudentTemplates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15860"/>
+    <workbookView windowWidth="32460" windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="学生信息" sheetId="1" r:id="rId1"/>
@@ -13,121 +13,108 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dongdanny</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>唯一标识列，标识同一条主数据，必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">若没有填写，默认为学号
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>若没有填写，默认123456</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <r>
-      <t>学号（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>必填、唯一</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>学号</t>
   </si>
   <si>
-    <r>
-      <t>学生姓名（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>必填</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>学生姓名</t>
   </si>
   <si>
-    <t>登录账号（若没有填写，默认为学号）</t>
+    <t>登录账号</t>
   </si>
   <si>
-    <t>登录密码（若没有填写，默认123456）</t>
+    <t>登录密码</t>
   </si>
   <si>
-    <r>
-      <t>性别（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>必填</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>性别</t>
   </si>
   <si>
-    <r>
-      <t>是否激活（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>必填</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>是否激活</t>
   </si>
   <si>
     <t>电话</t>
@@ -165,7 +152,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -322,26 +309,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -653,7 +631,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,7 +655,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,16 +679,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -719,85 +697,85 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -805,13 +783,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,16 +1325,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.6923076923077" customWidth="1"/>
-    <col min="2" max="2" width="30.4423076923077" customWidth="1"/>
+    <col min="2" max="2" width="33.3269230769231" customWidth="1"/>
     <col min="3" max="3" width="47.4326923076923" customWidth="1"/>
     <col min="4" max="4" width="39.7307692307692" customWidth="1"/>
     <col min="5" max="5" width="28.5288461538462" customWidth="1"/>
@@ -1391,8 +1369,117 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" ht="22" customHeight="1"/>
+    <row r="3" ht="22" customHeight="1"/>
+    <row r="4" ht="22" customHeight="1"/>
+    <row r="5" ht="22" customHeight="1"/>
+    <row r="6" ht="22" customHeight="1"/>
+    <row r="7" ht="22" customHeight="1"/>
+    <row r="8" ht="22" customHeight="1"/>
+    <row r="9" ht="22" customHeight="1"/>
+    <row r="10" ht="22" customHeight="1"/>
+    <row r="11" ht="22" customHeight="1"/>
+    <row r="12" ht="22" customHeight="1"/>
+    <row r="13" ht="22" customHeight="1"/>
+    <row r="14" ht="22" customHeight="1"/>
+    <row r="15" ht="22" customHeight="1"/>
+    <row r="16" ht="22" customHeight="1"/>
+    <row r="17" ht="22" customHeight="1"/>
+    <row r="18" ht="22" customHeight="1"/>
+    <row r="19" ht="22" customHeight="1"/>
+    <row r="20" ht="22" customHeight="1"/>
+    <row r="21" ht="22" customHeight="1"/>
+    <row r="22" ht="22" customHeight="1"/>
+    <row r="23" ht="22" customHeight="1"/>
+    <row r="24" ht="22" customHeight="1"/>
+    <row r="25" ht="22" customHeight="1"/>
+    <row r="26" ht="22" customHeight="1"/>
+    <row r="27" ht="22" customHeight="1"/>
+    <row r="28" ht="22" customHeight="1"/>
+    <row r="29" ht="22" customHeight="1"/>
+    <row r="30" ht="22" customHeight="1"/>
+    <row r="31" ht="22" customHeight="1"/>
+    <row r="32" ht="22" customHeight="1"/>
+    <row r="33" ht="22" customHeight="1"/>
+    <row r="34" ht="22" customHeight="1"/>
+    <row r="35" ht="22" customHeight="1"/>
+    <row r="36" ht="22" customHeight="1"/>
+    <row r="37" ht="22" customHeight="1"/>
+    <row r="38" ht="22" customHeight="1"/>
+    <row r="39" ht="22" customHeight="1"/>
+    <row r="40" ht="22" customHeight="1"/>
+    <row r="41" ht="22" customHeight="1"/>
+    <row r="42" ht="22" customHeight="1"/>
+    <row r="43" ht="22" customHeight="1"/>
+    <row r="44" ht="22" customHeight="1"/>
+    <row r="45" ht="22" customHeight="1"/>
+    <row r="46" ht="22" customHeight="1"/>
+    <row r="47" ht="22" customHeight="1"/>
+    <row r="48" ht="22" customHeight="1"/>
+    <row r="49" ht="22" customHeight="1"/>
+    <row r="50" ht="22" customHeight="1"/>
+    <row r="51" ht="22" customHeight="1"/>
+    <row r="52" ht="22" customHeight="1"/>
+    <row r="53" ht="22" customHeight="1"/>
+    <row r="54" ht="22" customHeight="1"/>
+    <row r="55" ht="22" customHeight="1"/>
+    <row r="56" ht="22" customHeight="1"/>
+    <row r="57" ht="22" customHeight="1"/>
+    <row r="58" ht="22" customHeight="1"/>
+    <row r="59" ht="22" customHeight="1"/>
+    <row r="60" ht="22" customHeight="1"/>
+    <row r="61" ht="22" customHeight="1"/>
+    <row r="62" ht="22" customHeight="1"/>
+    <row r="63" ht="22" customHeight="1"/>
+    <row r="64" ht="22" customHeight="1"/>
+    <row r="65" ht="22" customHeight="1"/>
+    <row r="66" ht="22" customHeight="1"/>
+    <row r="67" ht="22" customHeight="1"/>
+    <row r="68" ht="22" customHeight="1"/>
+    <row r="69" ht="22" customHeight="1"/>
+    <row r="70" ht="22" customHeight="1"/>
+    <row r="71" ht="22" customHeight="1"/>
+    <row r="72" ht="22" customHeight="1"/>
+    <row r="73" ht="22" customHeight="1"/>
+    <row r="74" ht="22" customHeight="1"/>
+    <row r="75" ht="22" customHeight="1"/>
+    <row r="76" ht="22" customHeight="1"/>
+    <row r="77" ht="22" customHeight="1"/>
+    <row r="78" ht="22" customHeight="1"/>
+    <row r="79" ht="22" customHeight="1"/>
+    <row r="80" ht="22" customHeight="1"/>
+    <row r="81" ht="22" customHeight="1"/>
+    <row r="82" ht="22" customHeight="1"/>
+    <row r="83" ht="22" customHeight="1"/>
+    <row r="84" ht="22" customHeight="1"/>
+    <row r="85" ht="22" customHeight="1"/>
+    <row r="86" ht="22" customHeight="1"/>
+    <row r="87" ht="22" customHeight="1"/>
+    <row r="88" ht="22" customHeight="1"/>
+    <row r="89" ht="22" customHeight="1"/>
+    <row r="90" ht="22" customHeight="1"/>
+    <row r="91" ht="22" customHeight="1"/>
+    <row r="92" ht="22" customHeight="1"/>
+    <row r="93" ht="22" customHeight="1"/>
+    <row r="94" ht="22" customHeight="1"/>
+    <row r="95" ht="22" customHeight="1"/>
+    <row r="96" ht="22" customHeight="1"/>
+    <row r="97" ht="22" customHeight="1"/>
+    <row r="98" ht="22" customHeight="1"/>
+    <row r="99" ht="22" customHeight="1"/>
+    <row r="100" ht="22" customHeight="1"/>
+    <row r="101" ht="22" customHeight="1"/>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22 E23:E101">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F101">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TemplateFiles/UploadStudentTemplates.xlsx
+++ b/TemplateFiles/UploadStudentTemplates.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>学号</t>
   </si>
@@ -122,16 +122,26 @@
   <si>
     <t>邮箱</t>
   </si>
+  <si>
+    <t>张三（示例）</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -779,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -790,6 +800,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1341,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1369,7 +1382,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1"/>
+    <row r="2" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A2" s="4">
+        <v>202405080001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="3" ht="22" customHeight="1"/>
     <row r="4" ht="22" customHeight="1"/>
     <row r="5" ht="22" customHeight="1"/>
@@ -1471,10 +1499,10 @@
     <row r="101" ht="22" customHeight="1"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22 E23:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E22 E23:E101">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
